--- a/Bug report.xlsx
+++ b/Bug report.xlsx
@@ -15,7 +15,6 @@
     <sheet name="BR-LB-01" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -314,7 +313,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Программа kkrieger-beta запустится, появится индикатор прогресса
+      <t xml:space="preserve">Программа kkrieger-beta аварийно окончила работу
 </t>
     </r>
     <r>
@@ -327,8 +326,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Ожидаемый результат:
-</t>
+      <t>Ожидаемый результат:</t>
     </r>
     <r>
       <rPr>
@@ -339,8 +337,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Программа kkrieger-beta аварийно окончила работу
-</t>
+      <t xml:space="preserve">
+Программа kkrieger-beta запустится, появится индикатор прогресса</t>
     </r>
     <r>
       <rPr>
@@ -605,6 +603,126 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -628,126 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,7 +1220,7 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,10 +1251,10 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1292,44 +1290,44 @@
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="69"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -1397,29 +1395,29 @@
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="36"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="36"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -1441,23 +1439,23 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1465,11 +1463,11 @@
       <c r="N11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="36"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1491,25 +1489,25 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="36"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -1598,42 +1596,42 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="52">
-        <v>43802</v>
-      </c>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="54"/>
+      <c r="O18" s="30">
+        <v>43842</v>
+      </c>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="32"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -1642,17 +1640,17 @@
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -1661,17 +1659,17 @@
       <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -1680,17 +1678,17 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="8"/>
       <c r="M22" s="10" t="s">
         <v>21</v>
@@ -1701,17 +1699,17 @@
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="8"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1720,253 +1718,253 @@
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="43" t="s">
+      <c r="M24" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="45"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="48"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="48"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="48"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="48"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="48"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="48"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="48"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="48"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="38"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="48"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="38"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="48"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="38"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="48"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="51"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -2007,10 +2005,10 @@
       <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="40"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2047,17 +2045,17 @@
       <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="57"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="58"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -2066,17 +2064,17 @@
       <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="60"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
@@ -2085,17 +2083,17 @@
       <c r="Q42" s="8"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="60"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="61"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -2104,17 +2102,17 @@
       <c r="Q43" s="8"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="60"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="61"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -2123,17 +2121,17 @@
       <c r="Q44" s="8"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="60"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="61"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -2142,17 +2140,17 @@
       <c r="Q45" s="8"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="60"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="61"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -2161,17 +2159,17 @@
       <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="60"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="61"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -2180,17 +2178,17 @@
       <c r="Q47" s="8"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="60"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="61"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
@@ -2199,17 +2197,17 @@
       <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="60"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="61"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
@@ -2218,17 +2216,17 @@
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="60"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="61"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
@@ -2237,17 +2235,17 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="60"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="61"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
@@ -2256,17 +2254,17 @@
       <c r="Q51" s="8"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="60"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="61"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
@@ -2275,17 +2273,17 @@
       <c r="Q52" s="8"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="60"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="61"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
@@ -2294,17 +2292,17 @@
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="60"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="61"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
@@ -2313,17 +2311,17 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="60"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="61"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
@@ -2332,17 +2330,17 @@
       <c r="Q55" s="8"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="60"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="61"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
@@ -2351,17 +2349,17 @@
       <c r="Q56" s="8"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="60"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="61"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
@@ -2370,17 +2368,17 @@
       <c r="Q57" s="8"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="60"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="61"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
@@ -2389,17 +2387,17 @@
       <c r="Q58" s="8"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="60"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="61"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
@@ -2408,17 +2406,17 @@
       <c r="Q59" s="8"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="60"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="61"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
@@ -2427,17 +2425,17 @@
       <c r="Q60" s="8"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="63"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="64"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -2503,10 +2501,10 @@
       <c r="Q64" s="8"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -2547,21 +2545,21 @@
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="36"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="29"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="52">
-        <v>43802</v>
-      </c>
-      <c r="J67" s="53"/>
-      <c r="K67" s="54"/>
+      <c r="I67" s="30">
+        <v>43842</v>
+      </c>
+      <c r="J67" s="31"/>
+      <c r="K67" s="32"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -2589,17 +2587,17 @@
       <c r="Q68" s="8"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="45"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="35"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -2608,17 +2606,17 @@
       <c r="Q69" s="8"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="48"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="38"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
@@ -2627,17 +2625,17 @@
       <c r="Q70" s="8"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="48"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="38"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
@@ -2646,17 +2644,17 @@
       <c r="Q71" s="8"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="48"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="38"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
@@ -2665,17 +2663,17 @@
       <c r="Q72" s="8"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="48"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="38"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -2684,17 +2682,17 @@
       <c r="Q73" s="8"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="48"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="38"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
@@ -2703,17 +2701,17 @@
       <c r="Q74" s="8"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="48"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="38"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
@@ -2722,17 +2720,17 @@
       <c r="Q75" s="8"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="48"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="38"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -2741,17 +2739,17 @@
       <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="48"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="38"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
@@ -2760,17 +2758,17 @@
       <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="51"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="41"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
@@ -2814,16 +2812,16 @@
       <c r="N80" s="8"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="67" t="s">
+      <c r="A81" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="67"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -2832,14 +2830,14 @@
       <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="68"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -2851,29 +2849,29 @@
       <c r="A83" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69" t="s">
+      <c r="C83" s="44"/>
+      <c r="D83" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70" t="s">
+      <c r="E83" s="45"/>
+      <c r="F83" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="71"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="70" t="s">
+      <c r="G83" s="46"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="72"/>
-      <c r="M83" s="64" t="s">
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N83" s="65"/>
+      <c r="N83" s="26"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -3133,15 +3131,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="A69:K78"/>
-    <mergeCell ref="A81:H82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -3155,12 +3150,15 @@
     <mergeCell ref="M24:Q36"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A41:K61"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="A69:K78"/>
+    <mergeCell ref="A81:H82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="I83:L83"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:D11">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Низкая (minor)">
@@ -3225,6 +3223,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>